--- a/新导表工具/DataTables/Datas/资源表.xlsx
+++ b/新导表工具/DataTables/Datas/资源表.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Game/HEDAO/导表工具/Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C23286-3DF9-AF45-B555-6BEBEAB97E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83297578-BFFF-4D92-B54A-CB3088D01535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39240" yWindow="7310" windowWidth="20120" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="特效资源表" sheetId="3" r:id="rId1"/>
-    <sheet name="网格特效表" sheetId="4" r:id="rId2"/>
+    <sheet name="实体表" sheetId="5" r:id="rId1"/>
+    <sheet name="特效资源表" sheetId="3" r:id="rId2"/>
+    <sheet name="网格特效表" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>选择特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,13 +86,62 @@
   <si>
     <t>attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/LDtk/Map.ldtk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridMap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +161,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -137,12 +193,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,21 +480,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE45772-B65C-428F-9C8B-942C8387F84D}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="32.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -443,7 +595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -457,7 +609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -478,7 +630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C551F51-8CE4-4B0B-9D61-A2FB0666297E}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -486,12 +638,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -502,7 +654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -516,7 +668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>

--- a/新导表工具/DataTables/Datas/资源表.xlsx
+++ b/新导表工具/DataTables/Datas/资源表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83297578-BFFF-4D92-B54A-CB3088D01535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C9E3EC-0C16-49FC-AE68-C87278A8FB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39240" yWindow="7310" windowWidth="20120" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="实体表" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>选择特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>GridMap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameMain/Res/Entities/GridUnit/GridUnit.prefab</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -484,12 +492,12 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="58.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,7 +558,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/新导表工具/DataTables/Datas/资源表.xlsx
+++ b/新导表工具/DataTables/Datas/资源表.xlsx
@@ -1,97 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C9E3EC-0C16-49FC-AE68-C87278A8FB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
-    <sheet name="实体表" sheetId="5" r:id="rId1"/>
-    <sheet name="特效资源表" sheetId="3" r:id="rId2"/>
-    <sheet name="网格特效表" sheetId="4" r:id="rId3"/>
+    <sheet name="实体表" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
-  <si>
-    <t>选择特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var#column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生点瓦片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Streak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条纹特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>streak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>##var</t>
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Path</t>
   </si>
   <si>
     <t>##type</t>
@@ -109,47 +53,26 @@
     <t>编号</t>
   </si>
   <si>
-    <t>Path</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>路径</t>
   </si>
   <si>
-    <t>资源路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Assets/Res/Entities/GridMap/GridMap_1.prefab</t>
   </si>
   <si>
-    <t>Group</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameMain/LDtk/Map.ldtk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GridMap</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GridUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameMain/Res/Entities/GridUnit/GridUnit.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Assets/Res/Entities/GirdUnit/GridUnit.prefab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,36 +81,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -195,37 +434,331 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="007F7F7F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -483,226 +1016,89 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE45772-B65C-428F-9C8B-942C8387F84D}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="58.4140625" customWidth="1"/>
+    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.57142857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.8571428571429" style="2" customWidth="1"/>
+    <col min="4" max="7" width="10.5803571428571" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5803571428571" style="3" customWidth="1"/>
+    <col min="9" max="11" width="10.5803571428571" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="2" customFormat="1" spans="2:3">
       <c r="B5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>10001</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="2" customFormat="1" spans="2:3">
       <c r="B6" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>10002</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="7" spans="8:8">
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C551F51-8CE4-4B0B-9D61-A2FB0666297E}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/资源表.xlsx
+++ b/新导表工具/DataTables/Datas/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="实体表" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>##var</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Assets/Res/Entities/GirdUnit/GridUnit.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/Entities/Effect/Select.prefab</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1028,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1093,7 +1096,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="8:8">
+    <row r="7" spans="2:8">
+      <c r="B7" s="2">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/资源表.xlsx
+++ b/新导表工具/DataTables/Datas/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15220"/>
+    <workbookView windowWidth="24580" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="实体表" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>##var</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Assets/Res/Entities/Effect/Select.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/Entities/Effect/GridEffect.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/Tilemap/move.asset</t>
   </si>
 </sst>
 </file>
@@ -685,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +705,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,21 +1034,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.57142857142857" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.8571428571429" style="2" customWidth="1"/>
-    <col min="4" max="7" width="10.5803571428571" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.5803571428571" style="3" customWidth="1"/>
-    <col min="9" max="11" width="10.5803571428571" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.16964285714286" style="2"/>
+    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.575" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.8583333333333" style="2" customWidth="1"/>
+    <col min="4" max="7" width="10.5833333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" style="3" customWidth="1"/>
+    <col min="9" max="11" width="10.5833333333333" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -1097,13 +1106,29 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/新导表工具/DataTables/Datas/资源表.xlsx
+++ b/新导表工具/DataTables/Datas/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24580" windowHeight="16600"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="实体表" sheetId="4" r:id="rId1"/>
@@ -56,10 +56,10 @@
     <t>路径</t>
   </si>
   <si>
-    <t>Assets/Res/Entities/GridMap/GridMap_1.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Res/Entities/GirdUnit/GridUnit.prefab</t>
+    <t>Assets/Res/Battle/BattleMap.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/Battle/Hero/Hero.prefab</t>
   </si>
   <si>
     <t>Assets/Res/Entities/Effect/Select.prefab</t>
@@ -1037,18 +1037,18 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.575" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.8583333333333" style="2" customWidth="1"/>
-    <col min="4" max="7" width="10.5833333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" style="3" customWidth="1"/>
-    <col min="9" max="11" width="10.5833333333333" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.16666666666667" style="2"/>
+    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.57142857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.8571428571429" style="2" customWidth="1"/>
+    <col min="4" max="7" width="10.5803571428571" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5803571428571" style="3" customWidth="1"/>
+    <col min="9" max="11" width="10.5803571428571" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">

--- a/新导表工具/DataTables/Datas/资源表.xlsx
+++ b/新导表工具/DataTables/Datas/资源表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Desktop/HEDAO/新导表工具/DataTables/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C0423-E247-5B49-8825-8A8DBA273174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95D1486-D8BD-3C4F-87F0-7EBAD1DBAAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>##var</t>
   </si>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>Assets/Res/Effect/fx_battle_arrow.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Res/Effect/fx_battle_line.prefab</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -566,6 +570,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="2">
+        <v>10007</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/新导表工具/DataTables/Datas/资源表.xlsx
+++ b/新导表工具/DataTables/Datas/资源表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Desktop/HEDAO/新导表工具/DataTables/Datas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95D1486-D8BD-3C4F-87F0-7EBAD1DBAAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17680" windowHeight="9400"/>
   </bookViews>
   <sheets>
     <sheet name="实体表" sheetId="4" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -78,18 +72,25 @@
   </si>
   <si>
     <t>Assets/Res/Effect/fx_battle_arrow.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Assets/Res/Effect/fx_battle_line.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Res/Prefabs/Map/MapObjects.prefab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,7 +102,6 @@
       <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -109,19 +109,155 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +270,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -158,12 +474,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -171,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -184,23 +724,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="007F7F7F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -458,30 +1041,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.16666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.8333333333333" style="2" customWidth="1"/>
     <col min="4" max="7" width="10.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
     <col min="9" max="11" width="10.5" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="2"/>
+    <col min="12" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +1075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -503,12 +1086,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -519,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="2:8">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
@@ -528,7 +1111,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="2:8">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
@@ -537,7 +1120,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="2:8">
       <c r="B7" s="2">
         <v>10003</v>
       </c>
@@ -546,7 +1129,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="2:3">
       <c r="B8" s="2">
         <v>10004</v>
       </c>
@@ -554,7 +1137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="2:3">
       <c r="B9" s="2">
         <v>10005</v>
       </c>
@@ -562,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="2:3">
       <c r="B10" s="2">
         <v>10006</v>
       </c>
@@ -570,7 +1153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="2:3">
       <c r="B11" s="2">
         <v>10007</v>
       </c>
@@ -578,9 +1161,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="2">
+        <v>10008</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/资源表.xlsx
+++ b/新导表工具/DataTables/Datas/资源表.xlsx
@@ -77,7 +77,7 @@
     <t>Assets/Res/Effect/fx_battle_line.prefab</t>
   </si>
   <si>
-    <t>Assets/Res/Prefabs/Map/MapObjects.prefab</t>
+    <t>Assets/Res/Prefabs/Map/MapView.prefab</t>
   </si>
 </sst>
 </file>
@@ -90,7 +90,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,13 +101,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -562,148 +555,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,7 +713,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,7 +1043,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/新导表工具/DataTables/Datas/资源表.xlsx
+++ b/新导表工具/DataTables/Datas/资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17680" windowHeight="9400"/>
+    <workbookView windowWidth="24730" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="实体表" sheetId="4" r:id="rId1"/>
@@ -56,10 +56,10 @@
     <t>路径</t>
   </si>
   <si>
-    <t>Assets/Res/Battle/BattleMap.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Res/Battle/Hero/Hero.prefab</t>
+    <t>Assets/Res/battle/battle_root.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/battle/battle_unit.prefab</t>
   </si>
   <si>
     <t>Assets/Res/Entities/Effect/Select.prefab</t>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/新导表工具/DataTables/Datas/资源表.xlsx
+++ b/新导表工具/DataTables/Datas/资源表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>##var</t>
   </si>
@@ -62,19 +62,13 @@
     <t>Assets/Res/battle/battle_unit.prefab</t>
   </si>
   <si>
-    <t>Assets/Res/Entities/Effect/Select.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Res/Entities/Effect/GridEffect.prefab</t>
-  </si>
-  <si>
     <t>Assets/Res/Tilemap/move.asset</t>
   </si>
   <si>
-    <t>Assets/Res/Effect/fx_battle_arrow.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Res/Effect/fx_battle_line.prefab</t>
+    <t>Assets/Res/battle/fx/fx_battle_arrow.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Res/battle/fx/fx_battle_line.prefab</t>
   </si>
   <si>
     <t>Assets/Res/Prefabs/Map/MapView.prefab</t>
@@ -1040,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1113,53 +1107,36 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:3">
       <c r="B7" s="2">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2">
-        <v>10004</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>10006</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2">
-        <v>10005</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>10007</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2">
-        <v>10006</v>
-      </c>
-      <c r="C10" s="4" t="s">
+        <v>10008</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="2">
-        <v>10007</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="2">
-        <v>10008</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
